--- a/Additional_Data/Transitive_Dependencies.xlsx
+++ b/Additional_Data/Transitive_Dependencies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malinda/Documents/SOFTWARE2_0/Additional_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B410374B-F088-A84B-82E2-5422AB802259}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975F906A-AFBD-F846-8105-C5B1F9222D91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14800" yWindow="460" windowWidth="27640" windowHeight="16940" xr2:uid="{D499629B-8219-D84D-A382-53B5B987C051}"/>
   </bookViews>
@@ -640,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B91BFD4-F381-2046-BE69-DD1AAE6BB760}">
   <dimension ref="A1:B102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="G96" sqref="G96"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
